--- a/document/基本設計/テーブル定義書.xlsx
+++ b/document/基本設計/テーブル定義書.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\13_ProgrammingPractice\document\【実習】各種設計書\基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\14_work\document\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EBB832-6AF5-4F55-AD2F-C3F33B3EE505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750E9B4A-BBEC-48CE-93C8-A648BD12AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="12" windowWidth="16044" windowHeight="13248" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="166" r:id="rId1"/>
-    <sheet name="取引先マスタ" sheetId="164" r:id="rId2"/>
+    <sheet name="ユーザーマスタ" sheetId="164" r:id="rId2"/>
+    <sheet name="蔵書マスタ" sheetId="167" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">取引先マスタ!$A$1:$P$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ユーザーマスタ!$A$1:$P$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">蔵書マスタ!$A$1:$P$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
     <definedName name="範囲１">#REF!</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>説明／備考</t>
   </si>
@@ -147,16 +149,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>取引先マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>桁数(小数)</t>
   </si>
   <si>
@@ -258,13 +250,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザー管理システム</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -312,12 +297,6 @@
     <t>名前（名）　　　</t>
   </si>
   <si>
-    <t>カナ（姓）　　　</t>
-  </si>
-  <si>
-    <t>カナ（名）　　　</t>
-  </si>
-  <si>
     <t>メールアドレス　</t>
   </si>
   <si>
@@ -337,9 +316,6 @@
   </si>
   <si>
     <t>住所（番地）　　</t>
-  </si>
-  <si>
-    <t>アカウント権限　</t>
   </si>
   <si>
     <t>削除フラグ　　　</t>
@@ -381,12 +357,6 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>family_name_kana</t>
-  </si>
-  <si>
-    <t>last_name_kana</t>
-  </si>
-  <si>
     <t>mail</t>
   </si>
   <si>
@@ -408,9 +378,6 @@
     <t>address_2</t>
   </si>
   <si>
-    <t>authority</t>
-  </si>
-  <si>
     <t>delete_flag</t>
   </si>
   <si>
@@ -429,10 +396,6 @@
   </si>
   <si>
     <t>current_timestamp()</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> login_user_transaction</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -450,20 +413,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ユーザーの姓のフリガナ</t>
-    <rPh sb="5" eb="6">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ユーザーの名前のフリガナ</t>
-    <rPh sb="5" eb="7">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>ユーザーのメールアドレス</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -516,13 +465,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ユーザーのアカウント権限</t>
-    <rPh sb="10" eb="12">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>アカウントの削除フラグ</t>
     <rPh sb="6" eb="8">
       <t>サクジョ</t>
@@ -554,6 +496,185 @@
       <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> login_user</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーマスタ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>蔵書管理</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>蔵書マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>collection_book</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録した本情報（=蔵書）を管理するマスタテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゾウショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ニックネーム</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nick_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーの画面表示上の呼び名</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>未読/既読</t>
+    <rPh sb="0" eb="2">
+      <t>ミドク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キドク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>著者</t>
+    <rPh sb="0" eb="2">
+      <t>チョシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出版者</t>
+    <rPh sb="0" eb="3">
+      <t>シュッパンシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ISBN/ISSN</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>出版日</t>
+    <rPh sb="0" eb="3">
+      <t>シュッパンビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>publication_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>unread</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>著者名</t>
+    <rPh sb="0" eb="3">
+      <t>チョシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>本に対する所感やメモ</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録日時　　　　</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>読書記録管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>ドクショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -710,7 +831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1062,6 +1183,17 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1074,7 +1206,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1239,6 +1371,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1352,6 +1499,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1591,7 +1750,7 @@
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>024/12/15</a:t>
+              <a:t>025/1/26</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -1874,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F68BB55-78EE-4C7C-9BD3-3B15EE3D092E}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -2266,25 +2425,25 @@
     <row r="8" spans="1:176" ht="13.05" customHeight="1">
       <c r="A8" s="46"/>
       <c r="B8" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="72"/>
+      <c r="F8" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
       <c r="R8" s="43"/>
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
@@ -2303,26 +2462,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="46"/>
-      <c r="B9" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="81"/>
+      <c r="B9" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="86"/>
       <c r="R9" s="43"/>
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
@@ -2341,22 +2500,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="46"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="84"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="89"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
@@ -2571,18 +2730,18 @@
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
+      <c r="L17" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
       <c r="V17" s="43"/>
       <c r="W17" s="43"/>
       <c r="AA17" s="43"/>
@@ -2604,16 +2763,16 @@
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
       <c r="V18" s="43"/>
       <c r="W18" s="43"/>
       <c r="AA18" s="43"/>
@@ -2635,16 +2794,16 @@
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
       <c r="V19" s="43"/>
       <c r="W19" s="43"/>
       <c r="X19" s="43"/>
@@ -2759,7 +2918,7 @@
     <row r="23" spans="1:32" ht="13.05" customHeight="1">
       <c r="A23" s="46"/>
       <c r="B23" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
@@ -2827,19 +2986,19 @@
     <row r="25" spans="1:32" ht="13.05" customHeight="1">
       <c r="A25" s="46"/>
       <c r="B25" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="55"/>
       <c r="F25" s="53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
       <c r="I25" s="55"/>
       <c r="J25" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25" s="54"/>
       <c r="L25" s="54"/>
@@ -2860,10 +3019,10 @@
       <c r="AA25" s="54"/>
       <c r="AB25" s="55"/>
       <c r="AC25" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD25" s="55" t="s">
         <v>31</v>
-      </c>
-      <c r="AD25" s="55" t="s">
-        <v>32</v>
       </c>
       <c r="AE25" s="43"/>
       <c r="AF25" s="48"/>
@@ -2871,19 +3030,19 @@
     <row r="26" spans="1:32" ht="13.05" customHeight="1">
       <c r="A26" s="46"/>
       <c r="B26" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
-      <c r="F26" s="87">
-        <v>45641</v>
-      </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="89"/>
+      <c r="F26" s="92">
+        <v>45683</v>
+      </c>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
       <c r="J26" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K26" s="54"/>
       <c r="L26" s="54"/>
@@ -2904,7 +3063,7 @@
       <c r="AA26" s="54"/>
       <c r="AB26" s="55"/>
       <c r="AC26" s="57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD26" s="55"/>
       <c r="AE26" s="43"/>
@@ -3511,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3535,106 +3694,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="90"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93" t="s">
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+        <v>37</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="35">
-        <v>45644</v>
+        <v>45683</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="96"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="101"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="112"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="117"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3657,11 +3816,11 @@
         <v>17</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>4</v>
@@ -3675,10 +3834,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="113" t="s">
+      <c r="L6" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="114"/>
+      <c r="M6" s="119"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3694,13 +3853,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
@@ -3713,12 +3872,12 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="115" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="116"/>
+        <v>70</v>
+      </c>
+      <c r="L7" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="121"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24"/>
       <c r="P7" s="29"/>
@@ -3728,13 +3887,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E8" s="26">
         <v>10</v>
@@ -3745,12 +3904,12 @@
       <c r="I8" s="25"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="102"/>
+        <v>71</v>
+      </c>
+      <c r="L8" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="107"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -3760,13 +3919,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E9" s="26">
         <v>10</v>
@@ -3777,44 +3936,46 @@
       <c r="I9" s="25"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="102"/>
+        <v>71</v>
+      </c>
+      <c r="L9" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="107"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="29"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="32">
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E10" s="26">
         <v>10</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="102"/>
+        <v>71</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="70"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
@@ -3824,29 +3985,31 @@
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E11" s="26">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F11" s="27"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="102"/>
+        <v>71</v>
+      </c>
+      <c r="L11" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="107"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -3856,29 +4019,31 @@
         <v>6</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E12" s="26">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="102"/>
+        <v>71</v>
+      </c>
+      <c r="L12" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="107"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -3888,16 +4053,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E13" s="26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="25"/>
@@ -3905,12 +4070,12 @@
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="102"/>
+        <v>71</v>
+      </c>
+      <c r="L13" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="107"/>
       <c r="N13" s="28"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
@@ -3920,16 +4085,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="25"/>
@@ -3937,12 +4102,12 @@
       <c r="I14" s="25"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="102"/>
+        <v>71</v>
+      </c>
+      <c r="L14" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="107"/>
       <c r="N14" s="28"/>
       <c r="O14" s="24"/>
       <c r="P14" s="29"/>
@@ -3952,16 +4117,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E15" s="26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="25"/>
@@ -3969,12 +4134,12 @@
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="102"/>
+      <c r="M15" s="107"/>
       <c r="N15" s="28"/>
       <c r="O15" s="24"/>
       <c r="P15" s="29"/>
@@ -3984,16 +4149,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E16" s="26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="25"/>
@@ -4001,12 +4166,12 @@
       <c r="I16" s="25"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="101" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="102"/>
+        <v>71</v>
+      </c>
+      <c r="L16" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="107"/>
       <c r="N16" s="28"/>
       <c r="O16" s="24"/>
       <c r="P16" s="29"/>
@@ -4016,16 +4181,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E17" s="26">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="25"/>
@@ -4033,12 +4198,12 @@
       <c r="I17" s="25"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="102"/>
+        <v>71</v>
+      </c>
+      <c r="L17" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="107"/>
       <c r="N17" s="28"/>
       <c r="O17" s="24"/>
       <c r="P17" s="29"/>
@@ -4048,29 +4213,29 @@
         <v>12</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E18" s="26">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" s="102"/>
+      <c r="K18" s="24">
+        <v>0</v>
+      </c>
+      <c r="L18" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="107"/>
       <c r="N18" s="28"/>
       <c r="O18" s="24"/>
       <c r="P18" s="29"/>
@@ -4080,29 +4245,27 @@
         <v>13</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="26">
-        <v>1</v>
-      </c>
+      <c r="E19" s="26"/>
       <c r="F19" s="27"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="102"/>
+        <v>72</v>
+      </c>
+      <c r="L19" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="107"/>
       <c r="N19" s="28"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
@@ -4112,135 +4275,76 @@
         <v>14</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="26">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E20" s="26"/>
       <c r="F20" s="27"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="24">
-        <v>0</v>
-      </c>
-      <c r="L20" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="102"/>
+      <c r="K20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="107"/>
       <c r="N20" s="28"/>
       <c r="O20" s="24"/>
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A21" s="32">
-        <v>15</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="102"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="29"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
     </row>
     <row r="22" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A22" s="32">
-        <v>16</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="102"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="29"/>
+      <c r="A22" s="64"/>
     </row>
     <row r="23" spans="1:16" ht="28.5" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
+      <c r="A23" s="64"/>
     </row>
     <row r="24" spans="1:16" ht="28.5" customHeight="1">
       <c r="A24" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="24">
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -4255,4 +4359,630 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AC5A70-BB1E-4194-AB1C-86F483D075A3}">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="12" customWidth="1"/>
+    <col min="7" max="8" width="4" style="12" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="35">
+        <v>45683</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="105"/>
+      <c r="P2" s="101"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A3" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="109"/>
+      <c r="C3" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="117"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="119"/>
+      <c r="N6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A7" s="22">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="124"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="26">
+        <v>30</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="126"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A9" s="32">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="26">
+        <v>30</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="125" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="126"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A10" s="32">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="26">
+        <v>30</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A11" s="32">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="26">
+        <v>30</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="74"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A12" s="32">
+        <v>6</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="26">
+        <v>13</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="74"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="32">
+        <v>7</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="74"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A14" s="32">
+        <v>8</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="26">
+        <v>200</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="74"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A15" s="32">
+        <v>9</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24">
+        <v>0</v>
+      </c>
+      <c r="L15" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="74"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A16" s="32">
+        <v>10</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="74"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A17" s="32">
+        <v>11</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="74"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+    </row>
+    <row r="19" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="64"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A20" s="64"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A21" s="64"/>
+    </row>
+    <row r="22" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A22" s="64"/>
+    </row>
+    <row r="23" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A23" s="64"/>
+    </row>
+    <row r="24" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A24" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/document/基本設計/テーブル定義書.xlsx
+++ b/document/基本設計/テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\14_work\document\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750E9B4A-BBEC-48CE-93C8-A648BD12AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40AA273-B7E7-4FD6-8825-73C7DBAB7C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ユーザーマスタ!$A$1:$P$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">蔵書マスタ!$A$1:$P$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">蔵書マスタ!$A$1:$P$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
     <definedName name="範囲１">#REF!</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
   <si>
     <t>説明／備考</t>
   </si>
@@ -675,6 +675,41 @@
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>公開/非公開</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>オーナー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Rev 1.01</t>
+  </si>
+  <si>
+    <t>蔵書マスタに追加</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1206,7 +1241,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1386,6 +1421,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1416,6 +1457,57 @@
     <xf numFmtId="14" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,57 +1540,6 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2033,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F68BB55-78EE-4C7C-9BD3-3B15EE3D092E}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:Q10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1"/>
@@ -2430,20 +2471,20 @@
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="79"/>
       <c r="R8" s="43"/>
       <c r="S8" s="43"/>
       <c r="T8" s="43"/>
@@ -2462,26 +2503,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="46"/>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="84" t="s">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="88"/>
       <c r="R9" s="43"/>
       <c r="S9" s="43"/>
       <c r="T9" s="43"/>
@@ -2500,22 +2541,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="46"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="89"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="91"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
       <c r="T10" s="43"/>
@@ -2730,18 +2771,18 @@
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
-      <c r="L17" s="90" t="s">
+      <c r="L17" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="91"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
       <c r="V17" s="43"/>
       <c r="W17" s="43"/>
       <c r="AA17" s="43"/>
@@ -2763,16 +2804,16 @@
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
       <c r="V18" s="43"/>
       <c r="W18" s="43"/>
       <c r="AA18" s="43"/>
@@ -2794,16 +2835,16 @@
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
       <c r="V19" s="43"/>
       <c r="W19" s="43"/>
       <c r="X19" s="43"/>
@@ -3035,12 +3076,12 @@
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
-      <c r="F26" s="92">
+      <c r="F26" s="94">
         <v>45683</v>
       </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="94"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="96"/>
       <c r="J26" s="53" t="s">
         <v>33</v>
       </c>
@@ -3071,15 +3112,21 @@
     </row>
     <row r="27" spans="1:32" ht="13.05" customHeight="1">
       <c r="A27" s="46"/>
-      <c r="B27" s="53"/>
+      <c r="B27" s="53" t="s">
+        <v>116</v>
+      </c>
       <c r="C27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="53"/>
+      <c r="F27" s="94">
+        <v>45717</v>
+      </c>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="53" t="s">
+        <v>117</v>
+      </c>
       <c r="K27" s="54"/>
       <c r="L27" s="54"/>
       <c r="M27" s="54"/>
@@ -3098,7 +3145,9 @@
       <c r="Z27" s="54"/>
       <c r="AA27" s="54"/>
       <c r="AB27" s="55"/>
-      <c r="AC27" s="57"/>
+      <c r="AC27" s="57" t="s">
+        <v>36</v>
+      </c>
       <c r="AD27" s="55"/>
       <c r="AE27" s="43"/>
       <c r="AF27" s="48"/>
@@ -3648,7 +3697,8 @@
       <c r="AF43" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="F8:Q8"/>
     <mergeCell ref="B9:E10"/>
     <mergeCell ref="F9:Q10"/>
@@ -3671,7 +3721,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3694,25 +3744,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="116"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3722,27 +3772,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
       <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
@@ -3752,48 +3802,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="101"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="112" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="117"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -3834,10 +3884,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="118" t="s">
+      <c r="L6" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="119"/>
+      <c r="M6" s="111"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3874,10 +3924,10 @@
       <c r="K7" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="120" t="s">
+      <c r="L7" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="121"/>
+      <c r="M7" s="113"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24"/>
       <c r="P7" s="29"/>
@@ -3906,10 +3956,10 @@
       <c r="K8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="106" t="s">
+      <c r="L8" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="107"/>
+      <c r="M8" s="98"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
@@ -3938,10 +3988,10 @@
       <c r="K9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="106" t="s">
+      <c r="L9" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="M9" s="107"/>
+      <c r="M9" s="98"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="28"/>
@@ -4006,10 +4056,10 @@
       <c r="K11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="106" t="s">
+      <c r="L11" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="107"/>
+      <c r="M11" s="98"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
@@ -4028,7 +4078,7 @@
         <v>56</v>
       </c>
       <c r="E12" s="26">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="25" t="s">
@@ -4040,10 +4090,10 @@
       <c r="K12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="106" t="s">
+      <c r="L12" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="107"/>
+      <c r="M12" s="98"/>
       <c r="N12" s="28"/>
       <c r="O12" s="24"/>
       <c r="P12" s="29"/>
@@ -4072,10 +4122,10 @@
       <c r="K13" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="106" t="s">
+      <c r="L13" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="107"/>
+      <c r="M13" s="98"/>
       <c r="N13" s="28"/>
       <c r="O13" s="24"/>
       <c r="P13" s="29"/>
@@ -4104,10 +4154,10 @@
       <c r="K14" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="106" t="s">
+      <c r="L14" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="107"/>
+      <c r="M14" s="98"/>
       <c r="N14" s="28"/>
       <c r="O14" s="24"/>
       <c r="P14" s="29"/>
@@ -4136,10 +4186,10 @@
       <c r="K15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="106" t="s">
+      <c r="L15" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="107"/>
+      <c r="M15" s="98"/>
       <c r="N15" s="28"/>
       <c r="O15" s="24"/>
       <c r="P15" s="29"/>
@@ -4168,10 +4218,10 @@
       <c r="K16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="106" t="s">
+      <c r="L16" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="107"/>
+      <c r="M16" s="98"/>
       <c r="N16" s="28"/>
       <c r="O16" s="24"/>
       <c r="P16" s="29"/>
@@ -4200,10 +4250,10 @@
       <c r="K17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="106" t="s">
+      <c r="L17" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="107"/>
+      <c r="M17" s="98"/>
       <c r="N17" s="28"/>
       <c r="O17" s="24"/>
       <c r="P17" s="29"/>
@@ -4232,10 +4282,10 @@
       <c r="K18" s="24">
         <v>0</v>
       </c>
-      <c r="L18" s="106" t="s">
+      <c r="L18" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="107"/>
+      <c r="M18" s="98"/>
       <c r="N18" s="28"/>
       <c r="O18" s="24"/>
       <c r="P18" s="29"/>
@@ -4262,10 +4312,10 @@
       <c r="K19" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="106" t="s">
+      <c r="L19" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="M19" s="107"/>
+      <c r="M19" s="98"/>
       <c r="N19" s="28"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
@@ -4292,10 +4342,10 @@
       <c r="K20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="106" t="s">
+      <c r="L20" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="M20" s="107"/>
+      <c r="M20" s="98"/>
       <c r="N20" s="28"/>
       <c r="O20" s="24"/>
       <c r="P20" s="29"/>
@@ -4312,8 +4362,8 @@
       <c r="I21" s="68"/>
       <c r="J21" s="67"/>
       <c r="K21" s="67"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
       <c r="N21" s="67"/>
       <c r="O21" s="67"/>
       <c r="P21" s="67"/>
@@ -4329,13 +4379,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:P4"/>
@@ -4346,13 +4396,13 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4363,10 +4413,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AC5A70-BB1E-4194-AB1C-86F483D075A3}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -4389,25 +4439,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="116"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4417,27 +4467,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
       <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
@@ -4447,48 +4497,48 @@
       <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="101"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="112" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="114"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="106"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="117"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="9"/>
@@ -4529,10 +4579,10 @@
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="118" t="s">
+      <c r="L6" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="119"/>
+      <c r="M6" s="111"/>
       <c r="N6" s="15" t="s">
         <v>1</v>
       </c>
@@ -4569,10 +4619,10 @@
       <c r="K7" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="123" t="s">
+      <c r="L7" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="124"/>
+      <c r="M7" s="126"/>
       <c r="N7" s="28"/>
       <c r="O7" s="24"/>
       <c r="P7" s="29"/>
@@ -4582,50 +4632,48 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="26">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="25" t="s">
-        <v>18</v>
-      </c>
+      <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" s="126"/>
+      <c r="L8" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="76"/>
       <c r="N8" s="28"/>
       <c r="O8" s="24"/>
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>3</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="26">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="25"/>
@@ -4635,23 +4683,23 @@
       <c r="K9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="125" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" s="126"/>
+      <c r="L9" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="76"/>
       <c r="N9" s="28"/>
       <c r="O9" s="24"/>
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>4</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>56</v>
@@ -4660,30 +4708,32 @@
         <v>30</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" s="74"/>
+      <c r="L10" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="128"/>
       <c r="N10" s="28"/>
       <c r="O10" s="24"/>
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>56</v>
@@ -4699,29 +4749,29 @@
       <c r="K11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="74"/>
+      <c r="L11" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="128"/>
       <c r="N11" s="28"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>6</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="26">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="25"/>
@@ -4732,7 +4782,7 @@
         <v>71</v>
       </c>
       <c r="L12" s="73" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M12" s="74"/>
       <c r="N12" s="28"/>
@@ -4740,25 +4790,23 @@
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>7</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="26">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F13" s="27"/>
-      <c r="G13" s="25" t="s">
-        <v>18</v>
-      </c>
+      <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
@@ -4766,7 +4814,7 @@
         <v>71</v>
       </c>
       <c r="L13" s="73" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M13" s="74"/>
       <c r="N13" s="28"/>
@@ -4774,20 +4822,20 @@
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>8</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="26">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="25"/>
@@ -4798,7 +4846,7 @@
         <v>71</v>
       </c>
       <c r="L14" s="73" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M14" s="74"/>
       <c r="N14" s="28"/>
@@ -4806,14 +4854,14 @@
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>9</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>55</v>
@@ -4822,15 +4870,17 @@
         <v>1</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="24">
-        <v>0</v>
+      <c r="K15" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="L15" s="73" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M15" s="74"/>
       <c r="N15" s="28"/>
@@ -4838,29 +4888,31 @@
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>10</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="E16" s="26">
+        <v>200</v>
+      </c>
       <c r="F16" s="27"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M16" s="74"/>
       <c r="N16" s="28"/>
@@ -4868,29 +4920,31 @@
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>11</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
       <c r="F17" s="27"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="24" t="s">
-        <v>71</v>
+      <c r="K17" s="24">
+        <v>0</v>
       </c>
       <c r="L17" s="73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M17" s="74"/>
       <c r="N17" s="28"/>
@@ -4898,73 +4952,140 @@
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
+      <c r="A18" s="31">
+        <v>12</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="74"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="A19" s="31">
+        <v>13</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="74"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A20" s="64"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+    </row>
+    <row r="21" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="64"/>
-    </row>
-    <row r="22" spans="1:16" ht="28.5" customHeight="1">
+      <c r="B21" s="8"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" s="30" customFormat="1" ht="31.5" customHeight="1">
       <c r="A22" s="64"/>
-    </row>
-    <row r="23" spans="1:16" ht="28.5" customHeight="1">
+      <c r="B22" s="8"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" ht="31.5" customHeight="1">
       <c r="A23" s="64"/>
     </row>
     <row r="24" spans="1:16" ht="28.5" customHeight="1">
       <c r="A24" s="64"/>
     </row>
+    <row r="25" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A25" s="64"/>
+    </row>
+    <row r="26" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A26" s="64"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -4972,13 +5093,6 @@
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
